--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/um0316.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How was your expedition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you happen to find\nany treasures?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как прошла экспедиция?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы нашли какие-нибудь\nсокровища?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ðñïšìà üëòðåäéøéÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îàšìé ëàëéå-îéáôäû\nòïëñïâéþà?</t>
   </si>
 </sst>
 </file>
@@ -445,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +548,37 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>158</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>161</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -88,6 +88,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú îàšìé ëàëéå-îéáôäû\nòïëñïâéþà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are many kinds of\ntreasures in the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve traveled far searching\nfor those treasures.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В мире есть много разных\nсокровищ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы через многое прошли, пока\nискали эти сокровища.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â íéñå åòóû íîïãï ñàèîúö\nòïëñïâéþ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú œåñåè íîïãïå ðñïšìé, ðïëà\néòëàìé üóé òïëñïâéþà.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1203.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I had a really disgusting\ndrink there. It tasted terrible…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m not headed back to that\nshop again.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне тут подали такой\nотвратительный напиток. На вкус был\nужасен...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я больше не стану ничего\nзаказывать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óôó ðïäàìé óàëïê\nïóâñàóéóåìûîúê îàðéóïë. Îà âëôò áúì\nôçàòåî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áïìûšå îå òóàîô îéœåãï\nèàëàèúâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P01P04A/um1504.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It would be good to see [CS:N]Grovyle[CR]\nfinally captured.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1613.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будет здорово, если [CS:N]Гровайла[CR]\nнаконец поймают.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäåó èäïñïâï, åòìé [CS:N]Ãñïâàêìà[CR]\nîàëïîåø ðïêíàýó.</t>
   </si>
 </sst>
 </file>
@@ -466,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,17 +626,103 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>161</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6">
+        <v>139</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
+        <v>117</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Áôäåó èäïñïâï, åòìé [CS:N]Ãñïâàêìà[CR]\nîàëïîåø ðïêíàýó.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild seems to be buzzing\nwith purpose these days…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В последнее время в гильдии все\nзаняты какой-то важной задачей...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðïòìåäîåå âñåíÿ â ãéìûäéé âòå\nèàîÿóú ëàëïê-óï âàçîïê èàäàœåê...</t>
   </si>
 </sst>
 </file>
@@ -178,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,11 +231,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -244,6 +267,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,20 +738,37 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>95</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Â ðïòìåäîåå âñåíÿ â ãéìûäéé âòå\nèàîÿóú ëàëïê-óï âàçîïê èàäàœåê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Luminous Spring[CR]?[K] Oh, that place\nis where Pokémon used to go to evolve.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Сияющий Источник[CR]?[K] О, это то\nместо, куда приходили Покемоны, чтобы\nэволюционировать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Òéÿýþéê Éòóïœîéë[CR]?[K] Ï, üóï óï\níåòóï, ëôäà ðñéöïäéìé Ðïëåíïîú, œóïáú\nüâïìýøéïîéñïâàóû.</t>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,20 +767,37 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <v>76</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t xml:space="preserve"> [CS:P]Òéÿýþéê Éòóïœîéë[CR]?[K] Ï, üóï óï\níåòóï, ëôäà ðñéöïäéìé Ðïëåíïîú, œóïáú\nüâïìýøéïîéñïâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?! Team [CS:X]Charm[CR]\ncame here?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?! Сюда пришла Команда [CS:X]Шарм[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?! Òýäà ðñéšìà Ëïíàîäà [CS:X]Šàñí[CR]?!</t>
   </si>
 </sst>
 </file>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,20 +796,37 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <v>57</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пиджи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Œóï?! Òýäà ðñéšìà Ëïíàîäà [CS:X]Šàñí[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re out of your league![K]\nYou KO\'d [CS:N]Darkrai[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2210.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы явно вам не ровня![K]\nВы уничтожили [CS:N]Даркрая[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ÿâîï âàí îå ñïâîÿ![K]\nÂú ôîéœóïçéìé [CS:N]Äàñëñàÿ[CR]!</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,20 +825,37 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
